--- a/testData/OpenCart_LoginData.xlsx
+++ b/testData/OpenCart_LoginData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\eclipse-workspace\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\git\aniket5889\opencart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,17 +441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>

--- a/testData/OpenCart_LoginData.xlsx
+++ b/testData/OpenCart_LoginData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>testfail</t>
+  </si>
+  <si>
+    <t>failtest</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -442,7 +457,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,9 +521,27 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
